--- a/medicine/Pharmacie/Le_Quotidien_du_pharmacien/Le_Quotidien_du_pharmacien.xlsx
+++ b/medicine/Pharmacie/Le_Quotidien_du_pharmacien/Le_Quotidien_du_pharmacien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Quotidien du pharmacien est un média de la presse professionnelle pharmaceutique française.
@@ -514,11 +526,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9 janvier 1985 : création du journal[1] qui fait partie du Groupe Quotidien présidé par Philippe Tesson[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9 janvier 1985 : création du journal qui fait partie du Groupe Quotidien présidé par Philippe Tesson.
 1999 : Le Quotidien du pharmacien lance la première version de son site internet.
-2022 : Le Quotidien du pharmacien propose une édition quotidienne numérique [3].</t>
+2022 : Le Quotidien du pharmacien propose une édition quotidienne numérique .</t>
         </is>
       </c>
     </row>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Quotidien du pharmacien (journal)
-Le journal papier est diffusé, chaque jeudi, en 30 000 exemplaires.
+          <t>Le Quotidien du pharmacien (journal)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le journal papier est diffusé, chaque jeudi, en 30 000 exemplaires.
 </t>
         </is>
       </c>
